--- a/biology/Botanique/Olacaceae/Olacaceae.xlsx
+++ b/biology/Botanique/Olacaceae/Olacaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Olacacées regroupe des plantes dicotylédones. Elle comprend 250 espèces réparties en 25 genres.
 Ce sont des arbres, des arbustes ou des lianes, certains parasitant les racines de leurs hôtes, des régions subtropicales à tropicales.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Olax, mot latin pour « odeur, odorant », en référence au bois parfumé de cette plante.
 </t>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sites web Angiosperm Phylogeny Website et Parasitic Plant Connection [9 fév 2008] se proposent de recenser les familles nouvelles. Par exemple, le genre Schoepfia est élevé au rang de famille : Schoepfiaceae
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 avr. 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 avr. 2010) :
 genre Anacolosa
 genre Aptandra
 genre Cathedra
@@ -604,7 +622,7 @@
 genre Strombosiopsis
 genre Tetrastylidium
 genre Ximenia
-Selon Angiosperm Phylogeny Website                        (21 mai 2010)[2] :
+Selon Angiosperm Phylogeny Website                        (21 mai 2010) :
 genre Anacolosa
 genre Aptandra
 genre Brachynema
@@ -632,7 +650,7 @@
 genre Strombosiopsis
 genre Tetrastylidium
 genre Ximenia
-Selon DELTA Angio           (29 avr. 2010)[3] :
+Selon DELTA Angio           (29 avr. 2010) :
 genre Anacolosa
 genre Aptandra
 genre Brachynema
@@ -658,7 +676,7 @@
 genre Strombosiopsis
 genre Tetrastylidium
 genre Ximenia
-Selon ITIS      (29 avr. 2010)[4] :
+Selon ITIS      (29 avr. 2010) :
 genre Ongokea Pierre
 genre Schoepfia Schreb.
 genre Ximenia L.</t>
